--- a/database/industries/chemical/sharum/product/yearly.xlsx
+++ b/database/industries/chemical/sharum/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\chemical\sharum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B67507-633C-405C-B345-D9D11A4CA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>اسید سولفوریک</t>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -293,7 +294,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -340,6 +341,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,17 +561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -546,7 +581,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +593,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +605,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -580,7 +615,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -592,7 +627,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +639,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -614,7 +649,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -636,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -646,7 +681,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -654,23 +689,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>49693</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44575</v>
       </c>
       <c r="G10" s="9">
         <v>44575</v>
       </c>
       <c r="H10" s="9">
-        <v>44575</v>
+        <v>48970</v>
       </c>
       <c r="I10" s="9">
-        <v>48970</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -678,23 +713,23 @@
         <v>11</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>4284</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3944</v>
       </c>
       <c r="G11" s="11">
-        <v>3944</v>
+        <v>4115</v>
       </c>
       <c r="H11" s="11">
-        <v>4115</v>
+        <v>3761</v>
       </c>
       <c r="I11" s="11">
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -709,14 +744,14 @@
       <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -733,14 +768,14 @@
       <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>37767</v>
       </c>
       <c r="I13" s="11">
-        <v>37767</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -748,23 +783,23 @@
         <v>15</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>41545</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
+        <v>44914</v>
       </c>
       <c r="G14" s="9">
-        <v>44914</v>
-      </c>
-      <c r="H14" s="9">
         <v>41565</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -778,39 +813,39 @@
       <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
+      <c r="G15" s="11">
+        <v>8038</v>
       </c>
       <c r="H15" s="11">
-        <v>8038</v>
+        <v>16470</v>
       </c>
       <c r="I15" s="11">
-        <v>16470</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17013</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>95522</v>
+        <v>0</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>93433</v>
       </c>
       <c r="G16" s="13">
-        <v>93433</v>
+        <v>98293</v>
       </c>
       <c r="H16" s="13">
-        <v>98293</v>
+        <v>106968</v>
       </c>
       <c r="I16" s="13">
-        <v>106968</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -820,7 +855,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -830,7 +865,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -840,7 +875,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -862,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -872,7 +907,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -880,36 +915,38 @@
         <v>11</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>21501</v>
       </c>
       <c r="F22" s="9">
-        <v>21501</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>16047</v>
       </c>
       <c r="H22" s="9">
-        <v>16047</v>
+        <v>13989</v>
       </c>
       <c r="I22" s="9">
-        <v>13989</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>19159</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-2266</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>12</v>
@@ -918,103 +955,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
+      <c r="E24" s="9">
+        <v>4395</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>4009</v>
       </c>
       <c r="H24" s="9">
-        <v>-2266</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3624</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>4289</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>4395</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>4009</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5404</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
+      <c r="E27" s="11">
+        <v>43134</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>46976</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25661</v>
+      </c>
+      <c r="I27" s="11">
+        <v>29988</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
@@ -1023,88 +1060,62 @@
       <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
-        <v>43134</v>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="H28" s="9">
-        <v>46976</v>
+        <v>17392</v>
       </c>
       <c r="I28" s="9">
-        <v>25661</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>44840</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1660</v>
-      </c>
-      <c r="I30" s="9">
-        <v>17392</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+        <v>19114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
-        <v>68288</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
         <v>69030</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
         <v>66426</v>
       </c>
-      <c r="I31" s="15">
+      <c r="H29" s="15">
         <v>60666</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="15">
+        <v>59173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1114,17 +1125,29 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1134,137 +1157,153 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
+        <v>143977</v>
+      </c>
+      <c r="F35" s="9">
+        <v>128434</v>
+      </c>
+      <c r="G35" s="9">
+        <v>145561</v>
+      </c>
+      <c r="H35" s="9">
+        <v>280136</v>
+      </c>
+      <c r="I35" s="9">
+        <v>404729</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>-196522</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>72464</v>
+        <v>428172</v>
       </c>
       <c r="F37" s="9">
-        <v>143977</v>
+        <v>427384</v>
       </c>
       <c r="G37" s="9">
-        <v>128434</v>
+        <v>890495</v>
       </c>
       <c r="H37" s="9">
-        <v>145561</v>
+        <v>1976662</v>
       </c>
       <c r="I37" s="9">
-        <v>280136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2096203</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>-292</v>
       </c>
       <c r="H38" s="11">
-        <v>-196522</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-341412</v>
+      </c>
+      <c r="I38" s="11">
+        <v>-1721383</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>233176</v>
-      </c>
-      <c r="F39" s="9">
-        <v>428172</v>
+      <c r="E39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G39" s="9">
-        <v>427384</v>
-      </c>
-      <c r="H39" s="9">
-        <v>890495</v>
-      </c>
-      <c r="I39" s="9">
-        <v>1976662</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
+      <c r="E40" s="11">
+        <v>519604</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>638504</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>1036851</v>
       </c>
       <c r="H40" s="11">
-        <v>-292</v>
+        <v>1194741</v>
       </c>
       <c r="I40" s="11">
-        <v>-341412</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2994765</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>23</v>
@@ -1276,87 +1315,59 @@
       <c r="F41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
+      <c r="G41" s="9">
+        <v>371216</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>352853</v>
-      </c>
-      <c r="F42" s="11">
-        <v>519604</v>
-      </c>
-      <c r="G42" s="11">
-        <v>638504</v>
-      </c>
-      <c r="H42" s="11">
-        <v>1036851</v>
-      </c>
-      <c r="I42" s="11">
-        <v>1194741</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="9">
-        <v>371216</v>
-      </c>
-      <c r="I43" s="9">
         <v>2533237</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="I41" s="9">
+        <v>5987033</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15">
-        <v>658493</v>
-      </c>
-      <c r="F44" s="15">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
         <v>1091753</v>
       </c>
-      <c r="G44" s="15">
+      <c r="F42" s="15">
         <v>1194322</v>
       </c>
-      <c r="H44" s="15">
+      <c r="G42" s="15">
         <v>2247309</v>
       </c>
-      <c r="I44" s="15">
+      <c r="H42" s="15">
         <v>5643364</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="15">
+        <v>9761347</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1366,17 +1377,29 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1386,72 +1409,88 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
+        <v>6696293</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>9070917</v>
+      </c>
+      <c r="H48" s="9">
+        <v>20025449</v>
+      </c>
+      <c r="I48" s="9">
+        <v>35292030</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>3782243</v>
+        <v>97422526</v>
       </c>
       <c r="F50" s="9">
-        <v>6696293</v>
+        <v>0</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
+        <v>222123971</v>
       </c>
       <c r="H50" s="9">
-        <v>9070917</v>
+        <v>545436534</v>
       </c>
       <c r="I50" s="9">
-        <v>20025449</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523135263</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>12</v>
+      <c r="E51" s="11">
+        <v>0</v>
       </c>
       <c r="F51" s="11">
         <v>0</v>
@@ -1462,61 +1501,61 @@
       <c r="H51" s="11">
         <v>0</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9">
-        <v>54366053</v>
-      </c>
-      <c r="F52" s="9">
-        <v>97422526</v>
+      <c r="E52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
       </c>
-      <c r="H52" s="9">
-        <v>222123971</v>
-      </c>
-      <c r="I52" s="9">
-        <v>545436534</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>12</v>
+      <c r="E53" s="11">
+        <v>12046274</v>
       </c>
       <c r="F53" s="11">
         <v>0</v>
       </c>
       <c r="G53" s="11">
-        <v>0</v>
+        <v>22071930</v>
       </c>
       <c r="H53" s="11">
-        <v>0</v>
+        <v>46558630</v>
       </c>
       <c r="I53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99865446</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>25</v>
@@ -1528,65 +1567,37 @@
       <c r="F54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
+      <c r="G54" s="9">
+        <v>223624096</v>
       </c>
       <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>7869157</v>
-      </c>
-      <c r="F55" s="11">
-        <v>12046274</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <v>22071930</v>
-      </c>
-      <c r="I55" s="11">
-        <v>46558630</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="9">
-        <v>223624096</v>
-      </c>
-      <c r="I56" s="9">
         <v>145655301</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="9">
+        <v>313227634</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1596,17 +1607,29 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1616,72 +1639,88 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9">
+        <v>-95043</v>
+      </c>
+      <c r="F60" s="9">
+        <v>-78023</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-119888</v>
+      </c>
+      <c r="H60" s="9">
+        <v>-209821</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-256173</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>12</v>
+      <c r="E62" s="9">
+        <v>-268178</v>
       </c>
       <c r="F62" s="9">
-        <v>-95043</v>
+        <v>-380664</v>
       </c>
       <c r="G62" s="9">
-        <v>-78023</v>
+        <v>-736368</v>
       </c>
       <c r="H62" s="9">
-        <v>-119888</v>
+        <v>-1642426</v>
       </c>
       <c r="I62" s="9">
-        <v>-209821</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2219782</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>12</v>
+      <c r="E63" s="11">
+        <v>0</v>
       </c>
       <c r="F63" s="11">
         <v>0</v>
@@ -1692,13 +1731,13 @@
       <c r="H63" s="11">
         <v>0</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>23</v>
@@ -1707,46 +1746,46 @@
       <c r="E64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="9">
-        <v>-268178</v>
+      <c r="F64" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G64" s="9">
-        <v>-380664</v>
-      </c>
-      <c r="H64" s="9">
-        <v>-736368</v>
-      </c>
-      <c r="I64" s="9">
-        <v>-1642426</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
+      <c r="E65" s="11">
+        <v>-393292</v>
       </c>
       <c r="F65" s="11">
-        <v>0</v>
+        <v>-437312</v>
       </c>
       <c r="G65" s="11">
-        <v>0</v>
+        <v>-765914</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>-1107121</v>
       </c>
       <c r="I65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2518557</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>23</v>
@@ -1758,87 +1797,59 @@
       <c r="F66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
+      <c r="G66" s="9">
+        <v>-137073</v>
       </c>
       <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="11">
-        <v>-393292</v>
-      </c>
-      <c r="G67" s="11">
-        <v>-437312</v>
-      </c>
-      <c r="H67" s="11">
-        <v>-765914</v>
-      </c>
-      <c r="I67" s="11">
-        <v>-1107121</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="9">
-        <v>-137073</v>
-      </c>
-      <c r="I68" s="9">
         <v>-1662714</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
+      <c r="I66" s="9">
+        <v>-2187116</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15">
-        <v>0</v>
-      </c>
-      <c r="F69" s="15">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15">
         <v>-756513</v>
       </c>
-      <c r="G69" s="15">
+      <c r="F67" s="15">
         <v>-895999</v>
       </c>
-      <c r="H69" s="15">
+      <c r="G67" s="15">
         <v>-1759243</v>
       </c>
-      <c r="I69" s="15">
+      <c r="H67" s="15">
         <v>-4622082</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="15">
+        <v>-7181628</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1848,17 +1859,29 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1868,89 +1891,105 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9">
+        <v>48934</v>
+      </c>
+      <c r="F73" s="9">
+        <v>50411</v>
+      </c>
+      <c r="G73" s="9">
+        <v>25673</v>
+      </c>
+      <c r="H73" s="9">
+        <v>70315</v>
+      </c>
+      <c r="I73" s="9">
+        <v>148556</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>-196522</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>12</v>
+      <c r="E75" s="9">
+        <v>159994</v>
       </c>
       <c r="F75" s="9">
-        <v>48934</v>
+        <v>46720</v>
       </c>
       <c r="G75" s="9">
-        <v>50411</v>
+        <v>154127</v>
       </c>
       <c r="H75" s="9">
-        <v>25673</v>
+        <v>334236</v>
       </c>
       <c r="I75" s="9">
-        <v>70315</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-123579</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>12</v>
+      <c r="E76" s="11">
+        <v>0</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>0</v>
+        <v>-292</v>
       </c>
       <c r="H76" s="11">
-        <v>-196522</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-341417</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>23</v>
@@ -1959,46 +1998,46 @@
       <c r="E77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="9">
-        <v>159994</v>
+      <c r="F77" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G77" s="9">
-        <v>46720</v>
-      </c>
-      <c r="H77" s="9">
-        <v>154127</v>
-      </c>
-      <c r="I77" s="9">
-        <v>334236</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
+      <c r="E78" s="11">
+        <v>126312</v>
       </c>
       <c r="F78" s="11">
-        <v>0</v>
+        <v>201192</v>
       </c>
       <c r="G78" s="11">
-        <v>0</v>
+        <v>270937</v>
       </c>
       <c r="H78" s="11">
-        <v>-292</v>
+        <v>87620</v>
       </c>
       <c r="I78" s="11">
-        <v>-341417</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>476208</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>23</v>
@@ -2010,84 +2049,36 @@
       <c r="F79" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>12</v>
+      <c r="G79" s="9">
+        <v>234143</v>
       </c>
       <c r="H79" s="9">
-        <v>0</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="11">
-        <v>126312</v>
-      </c>
-      <c r="G80" s="11">
-        <v>201192</v>
-      </c>
-      <c r="H80" s="11">
-        <v>270937</v>
-      </c>
-      <c r="I80" s="11">
-        <v>87620</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="9">
-        <v>234143</v>
-      </c>
-      <c r="I81" s="9">
         <v>870523</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
+      <c r="I79" s="9">
+        <v>3799917</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15">
-        <v>0</v>
-      </c>
-      <c r="F82" s="15">
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15">
         <v>335240</v>
       </c>
-      <c r="G82" s="15">
+      <c r="F80" s="15">
         <v>298323</v>
       </c>
-      <c r="H82" s="15">
+      <c r="G80" s="15">
         <v>488066</v>
       </c>
-      <c r="I82" s="15">
+      <c r="H80" s="15">
         <v>1021277</v>
+      </c>
+      <c r="I80" s="15">
+        <v>4301102</v>
       </c>
     </row>
   </sheetData>
